--- a/Data/LandArea_Cleaned_Subset.xlsx
+++ b/Data/LandArea_Cleaned_Subset.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Zhen\Documents\GitHub\BT4015\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55DF57-DF73-4267-82F9-FE4CA7C55AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="490" yWindow="30" windowWidth="14470" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -341,13 +358,16 @@
   </si>
   <si>
     <t>NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Area </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -395,13 +415,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -410,6 +444,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,9 +530,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,6 +582,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,14 +775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,62 +809,73 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2">
-        <v>17774660.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13942583.369999999</v>
+      </c>
+      <c r="H2">
+        <f>G2/1000000</f>
+        <v>13.942583369999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3">
-        <v>9019929.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>48665179.850000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="0">G3/1000000</f>
+        <v>48.665179850000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
@@ -793,18 +887,22 @@
         <v>104</v>
       </c>
       <c r="G4">
-        <v>17514936.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>7608112.5300000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7.6081125300000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
@@ -816,87 +914,103 @@
         <v>105</v>
       </c>
       <c r="G5">
-        <v>6117280.049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>11140156.279999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>11.140156279999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>97</v>
       </c>
       <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>17774660.609999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>17.774660609999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>105</v>
       </c>
-      <c r="G6">
-        <v>9524177.748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
       <c r="G7">
-        <v>13933022.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9019929.7300000004</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.0199297300000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8">
-        <v>22949603.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>17514936.539999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>17.514936540000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -908,44 +1022,52 @@
         <v>105</v>
       </c>
       <c r="G9">
-        <v>14680284.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>6117280.0489999996</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>6.1172800489999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10">
-        <v>8584699.851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9524177.7479999997</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9.5241777479999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>99</v>
@@ -954,41 +1076,49 @@
         <v>104</v>
       </c>
       <c r="G11">
-        <v>8968011.812000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>5083636.2889999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5.0836362890000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G12">
-        <v>20489871.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>9644787.3660000004</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>9.644787366000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
@@ -1000,64 +1130,76 @@
         <v>106</v>
       </c>
       <c r="G13">
-        <v>12506232.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>13933022.85</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>13.93302285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>13942583.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>22949603.41</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>22.949603410000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15">
-        <v>48665179.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14680284.49</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>14.68028449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
@@ -1069,41 +1211,49 @@
         <v>104</v>
       </c>
       <c r="G16">
-        <v>7608112.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>8584699.8509999998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8.5846998509999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17">
-        <v>11140156.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>35044849.079999998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>35.044849079999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
@@ -1115,64 +1265,76 @@
         <v>104</v>
       </c>
       <c r="G18">
-        <v>35789538.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>8968011.8120000008</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>8.9680118120000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19">
-        <v>18058884.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1373186.2320000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.3731862320000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20">
-        <v>10603045.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>20489871.34</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>20.489871340000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
@@ -1184,44 +1346,52 @@
         <v>106</v>
       </c>
       <c r="G21">
-        <v>10100540.69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>12506232.73</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>12.506232730000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22">
-        <v>30676070.77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>35789538.979999997</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>35.789538979999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>99</v>
@@ -1230,110 +1400,130 @@
         <v>104</v>
       </c>
       <c r="G23">
-        <v>7552299.281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1475697.9650000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.4756979650000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G24">
-        <v>8180210.366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>18058884.27</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>18.05888427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25">
-        <v>5083636.289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>10603045.039999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>10.60304504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G26">
-        <v>1373186.232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>10100540.689999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>10.100540689999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G27">
-        <v>1475697.965</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>30676070.77</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>30.676070769999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1345,18 +1535,22 @@
         <v>104</v>
       </c>
       <c r="G28">
-        <v>35044849.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>7552299.2810000004</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>7.5522992810000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>97</v>
@@ -1368,10 +1562,14 @@
         <v>104</v>
       </c>
       <c r="G29">
-        <v>9644787.366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>8180210.3660000004</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>8.1802103660000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1391,10 +1589,14 @@
         <v>108</v>
       </c>
       <c r="G30">
-        <v>15619408.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>15619408.300000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>15.6194083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1414,10 +1616,17 @@
         <v>108</v>
       </c>
       <c r="G31">
-        <v>21011029.08</v>
+        <v>21011029.079999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>21.011029079999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="B1:B31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>